--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08799116618568406</v>
+        <v>0.04128234669994367</v>
       </c>
       <c r="H2" t="n">
-        <v>32.68099956543809</v>
+        <v>-37.75076224132773</v>
       </c>
       <c r="I2" t="n">
-        <v>47.46935556505775</v>
+        <v>-22.64099249060162</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1576577721698144</v>
+        <v>0.115845973951684</v>
       </c>
       <c r="H3" t="n">
-        <v>33.3112872870266</v>
+        <v>-2.043675348374498</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3207104441640773</v>
+        <v>-0.3113436560685949</v>
       </c>
       <c r="H4" t="n">
-        <v>16.623951322028</v>
+        <v>-13.21778897599471</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.35652485922463</v>
+        <v>-0.3848948545473017</v>
       </c>
       <c r="H5" t="n">
-        <v>-10.64872727355023</v>
+        <v>3.53871762418937</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.180777155546546</v>
+        <v>0.1704518841653287</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.304384477223724</v>
+        <v>-13.54167296026246</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2848692834930076</v>
+        <v>0.2978876773838351</v>
       </c>
       <c r="H7" t="n">
-        <v>37.36433217879536</v>
+        <v>43.64181833288933</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1028393296478666</v>
+        <v>0.1124930609160521</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9257597119700385</v>
+        <v>10.39986038564196</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1340693097136621</v>
+        <v>0.1480842653263063</v>
       </c>
       <c r="H9" t="n">
-        <v>6.000351676697398</v>
+        <v>17.0811145063594</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06664587816840364</v>
+        <v>0.03216676452493511</v>
       </c>
       <c r="H10" t="n">
-        <v>8.476984915990329</v>
+        <v>-47.64336931159416</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04444088954316156</v>
+        <v>0.05437954479856622</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.99388131579553</v>
+        <v>8.911236208119098</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08699459198990483</v>
+        <v>0.0748415987255627</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.0200790278388</v>
+        <v>-19.14891060728478</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1215668944068231</v>
+        <v>0.06676093810934894</v>
       </c>
       <c r="H13" t="n">
-        <v>59.52044824486419</v>
+        <v>-12.3960941470489</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2261108987674045</v>
+        <v>0.2201181347013829</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06605353934323251</v>
+        <v>-2.586062095719726</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2510785117604125</v>
+        <v>0.2597361785580367</v>
       </c>
       <c r="H15" t="n">
-        <v>1.914230271699891</v>
+        <v>5.428427649413683</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1144517039017135</v>
+        <v>0.1098324779247966</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6214311161949614</v>
+        <v>-3.439610463803076</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1196396076658136</v>
+        <v>0.1314691227958478</v>
       </c>
       <c r="H17" t="n">
-        <v>-19.92443549349586</v>
+        <v>-12.0068643784044</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0191677899200153</v>
+        <v>-0.01247803826125872</v>
       </c>
       <c r="H18" t="n">
-        <v>114.1186190273669</v>
+        <v>-39.3890652923658</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02752537883898721</v>
+        <v>0.02389798348569629</v>
       </c>
       <c r="H19" t="n">
-        <v>13.63891657248005</v>
+        <v>-1.336836543919054</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1034783359536337</v>
+        <v>0.1206677653397234</v>
       </c>
       <c r="H20" t="n">
-        <v>21.65168759293928</v>
+        <v>41.86000534666174</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08458043420159764</v>
+        <v>0.08366129917890719</v>
       </c>
       <c r="H21" t="n">
-        <v>29.22125138224764</v>
+        <v>27.81700489259003</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1983790532633375</v>
+        <v>0.2127311786372466</v>
       </c>
       <c r="H22" t="n">
-        <v>3.558840458741605</v>
+        <v>11.05100980520755</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2226510856270893</v>
+        <v>0.2444756751095968</v>
       </c>
       <c r="H23" t="n">
-        <v>3.219066766361714</v>
+        <v>13.3367527080165</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04418225080241795</v>
+        <v>-0.02687881298695453</v>
       </c>
       <c r="H24" t="n">
-        <v>1060.98946190053</v>
+        <v>-606.3021475705696</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01908436150964876</v>
+        <v>-0.02815976208962057</v>
       </c>
       <c r="H25" t="n">
-        <v>-17.94256387856047</v>
+        <v>-21.07912951112936</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2038191394371592</v>
+        <v>0.2184439870437024</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.5111537659769469</v>
+        <v>6.627573336597243</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2335805637393472</v>
+        <v>0.2387531187765224</v>
       </c>
       <c r="H27" t="n">
-        <v>21.09864439902397</v>
+        <v>23.78032900947916</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02773728678316777</v>
+        <v>0.0597620589347017</v>
       </c>
       <c r="H28" t="n">
-        <v>-58.54765476965903</v>
+        <v>-10.68782184778933</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09146729309345004</v>
+        <v>0.08969102216433837</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.967482106021718</v>
+        <v>-4.851828246422852</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04128234669994367</v>
+        <v>0.07628696022732853</v>
       </c>
       <c r="H2" t="n">
-        <v>-37.75076224132773</v>
+        <v>15.03234444479457</v>
       </c>
       <c r="I2" t="n">
-        <v>-22.64099249060162</v>
+        <v>-12.03444491373377</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.115845973951684</v>
+        <v>0.08504947791364285</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.043675348374498</v>
+        <v>-28.08438665779851</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3113436560685949</v>
+        <v>-0.3151499939134525</v>
       </c>
       <c r="H4" t="n">
-        <v>-13.21778897599471</v>
+        <v>-14.60193522882694</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3848948545473017</v>
+        <v>-0.3282556134615772</v>
       </c>
       <c r="H5" t="n">
-        <v>3.53871762418937</v>
+        <v>17.73348734733268</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1704518841653287</v>
+        <v>0.1974506857778885</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.54167296026246</v>
+        <v>0.1529320065889339</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2978876773838351</v>
+        <v>0.3014597271804503</v>
       </c>
       <c r="H7" t="n">
-        <v>43.64181833288933</v>
+        <v>45.36426530507575</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1124930609160521</v>
+        <v>0.1234611316939594</v>
       </c>
       <c r="H8" t="n">
-        <v>10.39986038564196</v>
+        <v>21.16384416135609</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1480842653263063</v>
+        <v>0.154402335612279</v>
       </c>
       <c r="H9" t="n">
-        <v>17.0811145063594</v>
+        <v>22.07642382555814</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03216676452493511</v>
+        <v>0.03769039930365871</v>
       </c>
       <c r="H10" t="n">
-        <v>-47.64336931159416</v>
+        <v>-38.65275709310126</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05437954479856622</v>
+        <v>0.01916269804402507</v>
       </c>
       <c r="H11" t="n">
-        <v>8.911236208119098</v>
+        <v>-61.62098927476305</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0748415987255627</v>
+        <v>0.070459616644268</v>
       </c>
       <c r="H12" t="n">
-        <v>-19.14891060728478</v>
+        <v>-23.88274888713201</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06676093810934894</v>
+        <v>0.1165999937804763</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.3960941470489</v>
+        <v>53.00286615009556</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2201181347013829</v>
+        <v>0.2437620798510717</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.586062095719726</v>
+        <v>7.877636443924155</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2597361785580367</v>
+        <v>0.2488479412876118</v>
       </c>
       <c r="H15" t="n">
-        <v>5.428427649413683</v>
+        <v>1.008828725353352</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1098324779247966</v>
+        <v>0.0971190274523487</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.439610463803076</v>
+        <v>-14.61677548059599</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1314691227958478</v>
+        <v>0.1533093946331618</v>
       </c>
       <c r="H17" t="n">
-        <v>-12.0068643784044</v>
+        <v>2.610971056441752</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01247803826125872</v>
+        <v>-0.005837057972220477</v>
       </c>
       <c r="H18" t="n">
-        <v>-39.3890652923658</v>
+        <v>34.79567558858483</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02389798348569629</v>
+        <v>0.02916049217734911</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.336836543919054</v>
+        <v>20.3895051595287</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1206677653397234</v>
+        <v>0.1301913552171849</v>
       </c>
       <c r="H20" t="n">
-        <v>41.86000534666174</v>
+        <v>53.0561728329204</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08366129917890719</v>
+        <v>0.0747842873191851</v>
       </c>
       <c r="H21" t="n">
-        <v>27.81700489259003</v>
+        <v>14.25478341812668</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2127311786372466</v>
+        <v>0.1868864693653663</v>
       </c>
       <c r="H22" t="n">
-        <v>11.05100980520755</v>
+        <v>-2.440576529950394</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2444756751095968</v>
+        <v>0.1985637956798045</v>
       </c>
       <c r="H23" t="n">
-        <v>13.3367527080165</v>
+        <v>-7.947587024195888</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02687881298695453</v>
+        <v>-0.02238928487075818</v>
       </c>
       <c r="H24" t="n">
-        <v>-606.3021475705696</v>
+        <v>-488.3295514002349</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02815976208962057</v>
+        <v>-0.01100491374560266</v>
       </c>
       <c r="H25" t="n">
-        <v>-21.07912951112936</v>
+        <v>52.68193770877892</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2184439870437024</v>
+        <v>0.1892841667878095</v>
       </c>
       <c r="H26" t="n">
-        <v>6.627573336597243</v>
+        <v>-7.606010818755013</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2387531187765224</v>
+        <v>0.2290079342876671</v>
       </c>
       <c r="H27" t="n">
-        <v>23.78032900947916</v>
+        <v>18.7279881292008</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0597620589347017</v>
+        <v>0.0652080022873248</v>
       </c>
       <c r="H28" t="n">
-        <v>-10.68782184778933</v>
+        <v>-2.549061711566954</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08969102216433837</v>
+        <v>0.06922626576626248</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.851828246422852</v>
+        <v>-26.56173978128606</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>